--- a/FakeProject/design/excel/reward_code_config.xlsx
+++ b/FakeProject/design/excel/reward_code_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26385" windowHeight="11160"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,6 +113,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,14 +127,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,41 +194,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,7 +235,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,43 +251,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,19 +265,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,79 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,79 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,16 +505,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,39 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,130 +579,130 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/FakeProject/design/excel/reward_code_config.xlsx
+++ b/FakeProject/design/excel/reward_code_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,6 +113,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,14 +166,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,14 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,36 +192,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,9 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +214,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,36 +243,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -265,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,17 +459,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +481,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,7 +504,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,18 +528,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5678</v>
+        <v>567</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7778</v>
+        <v>777</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2222</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <v>2</v>

--- a/FakeProject/design/excel/reward_code_config.xlsx
+++ b/FakeProject/design/excel/reward_code_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>title_icon_path</t>
   </si>
   <si>
-    <t>player_17</t>
+    <t>player_01</t>
   </si>
   <si>
     <t>ui://9pt95nduk7gb1c</t>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,44 +109,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,18 +134,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +166,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,30 +225,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,73 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,109 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,63 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,19 +576,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,112 +597,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
